--- a/biology/Mycologie/Stephanosporaceae/Stephanosporaceae.xlsx
+++ b/biology/Mycologie/Stephanosporaceae/Stephanosporaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Stephanosphoraceae sont une famille de champignons basidiomycètes classée dans le Clade I Plicaturopsidoïde de l'ordre des Agaricales.
-Les espèces de la famille, connue depuis l'Eurasie jusqu'à la Nouvelle-Zélande, poussent sur des sols de bois pourri ou de débris végétaux. Selon le Dictionnaire des Champignons, la famille comprend 5 genres et 21 espèces[1]. Stephanospora caroticolor est une espèce européenne.
+Les espèces de la famille, connue depuis l'Eurasie jusqu'à la Nouvelle-Zélande, poussent sur des sols de bois pourri ou de débris végétaux. Selon le Dictionnaire des Champignons, la famille comprend 5 genres et 21 espèces. Stephanospora caroticolor est une espèce européenne.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephanosporaceae : Oberw. &amp; E. Horak
 </t>
@@ -543,9 +557,11 @@
           <t>Position des Stephanosporaceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'étude a reconnu trente familles d'agaricales, quatre genres incertae sedis qui n'étaient pas encore intégrés et a proposé deux clades à titre informels[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'étude a reconnu trente familles d'agaricales, quatre genres incertae sedis qui n'étaient pas encore intégrés et a proposé deux clades à titre informels.
 Agaricomycètes
 Boletales, Clade des Bolets
 Agaricales, Clade des Euagarics
@@ -580,12 +596,14 @@
           <t>Classification linnéenne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon le dictionnaire de 2008[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon le dictionnaire de 2008 :
 Athelidium
 Cristinia
-Lindtneria[3]
+Lindtneria
 Mayamontana
 Stephanospora</t>
         </is>
